--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H2">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I2">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J2">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>31.99429507057778</v>
+        <v>11.91605408587611</v>
       </c>
       <c r="R2">
-        <v>287.9486556352</v>
+        <v>107.244486772885</v>
       </c>
       <c r="S2">
-        <v>0.008264590964100326</v>
+        <v>0.003389527972372358</v>
       </c>
       <c r="T2">
-        <v>0.008264590964100326</v>
+        <v>0.003389527972372358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H3">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I3">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J3">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>85.91129026506111</v>
+        <v>62.57172357811945</v>
       </c>
       <c r="R3">
-        <v>773.20161238555</v>
+        <v>563.145512203075</v>
       </c>
       <c r="S3">
-        <v>0.02219213368110011</v>
+        <v>0.01779856031360011</v>
       </c>
       <c r="T3">
-        <v>0.02219213368110011</v>
+        <v>0.01779856031360011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H4">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I4">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J4">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>38.89851939549777</v>
+        <v>31.1994113001811</v>
       </c>
       <c r="R4">
-        <v>350.0866745594799</v>
+        <v>280.7947017016299</v>
       </c>
       <c r="S4">
-        <v>0.01004805235445078</v>
+        <v>0.008874689268896424</v>
       </c>
       <c r="T4">
-        <v>0.01004805235445078</v>
+        <v>0.008874689268896424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H5">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I5">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J5">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>122.8888167921289</v>
+        <v>74.08116395601333</v>
       </c>
       <c r="R5">
-        <v>1105.99935112916</v>
+        <v>666.7304756041199</v>
       </c>
       <c r="S5">
-        <v>0.03174396568540704</v>
+        <v>0.02107242679877013</v>
       </c>
       <c r="T5">
-        <v>0.03174396568540704</v>
+        <v>0.02107242679877013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J6">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>326.5441471955912</v>
+        <v>166.9836491353971</v>
       </c>
       <c r="R6">
-        <v>2938.89732476032</v>
+        <v>1502.852842218574</v>
       </c>
       <c r="S6">
-        <v>0.08435109454167428</v>
+        <v>0.0474985885087669</v>
       </c>
       <c r="T6">
-        <v>0.08435109454167428</v>
+        <v>0.0474985885087669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J7">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>876.8384786160146</v>
@@ -883,10 +883,10 @@
         <v>7891.54630754413</v>
       </c>
       <c r="S7">
-        <v>0.2265001104528016</v>
+        <v>0.2494171752748373</v>
       </c>
       <c r="T7">
-        <v>0.2265001104528015</v>
+        <v>0.2494171752748373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J8">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>397.0108988228631</v>
+        <v>437.2077797091791</v>
       </c>
       <c r="R8">
-        <v>3573.098089405767</v>
+        <v>3934.870017382612</v>
       </c>
       <c r="S8">
-        <v>0.1025536796426604</v>
+        <v>0.1243639873051246</v>
       </c>
       <c r="T8">
-        <v>0.1025536796426604</v>
+        <v>0.1243639873051246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J9">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>1254.24310148854</v>
+        <v>1038.124113940965</v>
       </c>
       <c r="R9">
-        <v>11288.18791339686</v>
+        <v>9343.117025468688</v>
       </c>
       <c r="S9">
-        <v>0.3239892043403649</v>
+        <v>0.2952949607007814</v>
       </c>
       <c r="T9">
-        <v>0.3239892043403649</v>
+        <v>0.2952949607007814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H10">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>72.07912921962668</v>
+        <v>41.79539783315477</v>
       </c>
       <c r="R10">
-        <v>648.7121629766401</v>
+        <v>376.158580498393</v>
       </c>
       <c r="S10">
-        <v>0.01861908564432042</v>
+        <v>0.01188872331821859</v>
       </c>
       <c r="T10">
-        <v>0.01861908564432042</v>
+        <v>0.01188872331821859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H11">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>193.5473489501817</v>
+        <v>219.4694704477262</v>
       </c>
       <c r="R11">
-        <v>1741.926140551635</v>
+        <v>1975.225234029535</v>
       </c>
       <c r="S11">
-        <v>0.04999609048208849</v>
+        <v>0.06242820851627768</v>
       </c>
       <c r="T11">
-        <v>0.04999609048208849</v>
+        <v>0.06242820851627768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H12">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>87.63347964927065</v>
+        <v>109.4315113085038</v>
       </c>
       <c r="R12">
-        <v>788.701316843436</v>
+        <v>984.883601776534</v>
       </c>
       <c r="S12">
-        <v>0.02263700020470408</v>
+        <v>0.03112785205287058</v>
       </c>
       <c r="T12">
-        <v>0.02263700020470408</v>
+        <v>0.03112785205287058</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H13">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>276.8530728890013</v>
+        <v>259.8386762237573</v>
       </c>
       <c r="R13">
-        <v>2491.677656001012</v>
+        <v>2338.548086013815</v>
       </c>
       <c r="S13">
-        <v>0.071515168549095</v>
+        <v>0.07391125073933193</v>
       </c>
       <c r="T13">
-        <v>0.07151516854909501</v>
+        <v>0.07391125073933193</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H14">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N14">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O14">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P14">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q14">
-        <v>12.21774829333334</v>
+        <v>12.33523952009066</v>
       </c>
       <c r="R14">
-        <v>109.95973464</v>
+        <v>111.017155680816</v>
       </c>
       <c r="S14">
-        <v>0.003156021782133029</v>
+        <v>0.003508765493840592</v>
       </c>
       <c r="T14">
-        <v>0.003156021782133029</v>
+        <v>0.003508765493840592</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H15">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q15">
-        <v>32.80717758270834</v>
+        <v>64.77288471154667</v>
       </c>
       <c r="R15">
-        <v>295.2645982443751</v>
+        <v>582.95596240392</v>
       </c>
       <c r="S15">
-        <v>0.00847457031978888</v>
+        <v>0.01842468177794405</v>
       </c>
       <c r="T15">
-        <v>0.00847457031978888</v>
+        <v>0.01842468177794405</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H16">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N16">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q16">
-        <v>14.85428317483333</v>
+        <v>32.29695069357866</v>
       </c>
       <c r="R16">
-        <v>133.6885485735</v>
+        <v>290.6725562422079</v>
       </c>
       <c r="S16">
-        <v>0.003837077023703841</v>
+        <v>0.009186884937688411</v>
       </c>
       <c r="T16">
-        <v>0.003837077023703841</v>
+        <v>0.009186884937688412</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H17">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N17">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q17">
-        <v>46.92788599716667</v>
+        <v>76.68720658188798</v>
       </c>
       <c r="R17">
-        <v>422.3509739745001</v>
+        <v>690.1848592369919</v>
       </c>
       <c r="S17">
-        <v>0.0121221543316069</v>
+        <v>0.02181371702067898</v>
       </c>
       <c r="T17">
-        <v>0.0121221543316069</v>
+        <v>0.02181371702067898</v>
       </c>
     </row>
   </sheetData>
